--- a/Payment Rejected File.xlsx
+++ b/Payment Rejected File.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://loreal-my.sharepoint.com/personal/rodrigo_cortesmacias_loreal_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6A97D768-CCB4-4BFF-B32A-323FFB8D080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA88E9F-56F8-426A-9470-A53660B3D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42E35C85-E39F-4564-B808-11322546CFD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{42E35C85-E39F-4564-B808-11322546CFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Support" sheetId="1" r:id="rId1"/>
-    <sheet name="Drop" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Soportes" sheetId="3" r:id="rId2"/>
+    <sheet name="Drop" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -443,7 +444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}" name="PaymentRF" displayName="PaymentRF" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O2" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{FF2D8E6B-E861-4993-A297-B33188F1F3B0}" name="Fecha de inicio flujo" dataDxfId="14"/>
@@ -787,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BB9B5A-7B3D-489E-91E4-7AFAB7F5D5D6}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,6 +983,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE729C-0D5B-4336-A099-FA93E01C0188}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016E1D7-BDA8-45C1-91F8-CDBDAB370AF3}">
   <dimension ref="B2:G17"/>
   <sheetViews>

--- a/Payment Rejected File.xlsx
+++ b/Payment Rejected File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://loreal-my.sharepoint.com/personal/rodrigo_cortesmacias_loreal_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA88E9F-56F8-426A-9470-A53660B3D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3860599-C149-4682-AF18-A8D5379DC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{42E35C85-E39F-4564-B808-11322546CFD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{42E35C85-E39F-4564-B808-11322546CFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Support" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Fecha del Rechazo</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Ejemplo 1</t>
+  </si>
+  <si>
+    <t>Hubo movimiento en banca</t>
+  </si>
+  <si>
+    <t>Movimiento en banca</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -234,11 +246,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,7 +267,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -444,26 +462,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}" name="PaymentRF" displayName="PaymentRF" ref="A1:O2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O2" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{FF2D8E6B-E861-4993-A297-B33188F1F3B0}" name="Fecha de inicio flujo" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{127B73AE-B26A-4D23-A4CD-F5CDE2694E0A}" name="Fecha del Rechazo" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5038FB55-7259-4493-9524-388530AC78B7}" name="Sociedad" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{02AB7214-15F8-4AB9-B7BC-0C8183BE91BB}" name="Documento SAP" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{484E626E-947F-418F-A574-8F09A9E76055}" name="Motivo del rechazo" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C71E92C7-7BFA-49D4-B89C-4673262C31AA}" name="ID Vendor" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{BC2D906F-2A10-4242-B2D0-E0CC21FD5014}" name="Nombre del vendor" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3A651A61-7A1F-423A-A29E-7763936305B4}" name="Monto del rechazo" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4CED7002-26F1-4949-8472-BD3DD5420A04}" name="Moneda" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}" name="PaymentRF" displayName="PaymentRF" ref="A1:P2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P2" xr:uid="{7C50FED2-7EE5-4D1F-8FF4-F7F8753C518F}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{FF2D8E6B-E861-4993-A297-B33188F1F3B0}" name="Fecha de inicio flujo" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{127B73AE-B26A-4D23-A4CD-F5CDE2694E0A}" name="Fecha del Rechazo" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5038FB55-7259-4493-9524-388530AC78B7}" name="Sociedad" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{02AB7214-15F8-4AB9-B7BC-0C8183BE91BB}" name="Documento SAP" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{484E626E-947F-418F-A574-8F09A9E76055}" name="Motivo del rechazo" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C71E92C7-7BFA-49D4-B89C-4673262C31AA}" name="ID Vendor" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{BC2D906F-2A10-4242-B2D0-E0CC21FD5014}" name="Nombre del vendor" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3A651A61-7A1F-423A-A29E-7763936305B4}" name="Monto del rechazo" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{4CED7002-26F1-4949-8472-BD3DD5420A04}" name="Moneda" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.XLOOKUP($C2,Drop!$B$2:$B$17,Drop!$C$2:$C$17,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0BE2BB44-8025-441B-AD97-88A58945B176}" name="Comentarios" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{96A7FF70-07AF-4CEF-973B-D03847C9EDAF}" name="Tipo de Operación" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{F92C841F-0289-4A93-8198-6288A2F94946}" name="Book" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{072A6FE9-F2AB-4935-8A25-42771872AEA6}" name="Deal" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{078DD521-F5FF-418E-8B60-530BF8F0303D}" name="Monto del retorno" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{F43E9EE4-232B-4F6B-9B50-4C2C394225FA}" name="Ticket MyServices" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{6A6A6450-5FE6-43ED-AF54-422A9AF2EBB1}" name="Hubo movimiento en banca" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{0BE2BB44-8025-441B-AD97-88A58945B176}" name="Comentarios" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{96A7FF70-07AF-4CEF-973B-D03847C9EDAF}" name="Tipo de Operación" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{F92C841F-0289-4A93-8198-6288A2F94946}" name="Book" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{072A6FE9-F2AB-4935-8A25-42771872AEA6}" name="Deal" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{078DD521-F5FF-418E-8B60-530BF8F0303D}" name="Monto del retorno" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{F43E9EE4-232B-4F6B-9B50-4C2C394225FA}" name="Ticket MyServices" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BB9B5A-7B3D-489E-91E4-7AFAB7F5D5D6}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,142 +823,110 @@
     <col min="7" max="7" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15" customWidth="1"/>
-    <col min="18" max="16384" width="15" hidden="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="19" max="16384" width="15" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45797</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45797</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>123456</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>234</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>12345</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="3" t="str">
         <f>_xlfn.XLOOKUP($C2,Drop!$B$2:$B$17,Drop!$C$2:$C$17,"")</f>
         <v>MXN</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2" xr:uid="{60EAAB32-AA40-4FE9-B7FA-12C4A5A7B9C2}">
@@ -957,7 +944,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31AC7D9A-CC02-4B31-869D-9182812CB65A}">
           <x14:formula1>
             <xm:f>Drop!$B$3:$B$17</xm:f>
@@ -968,13 +955,19 @@
           <x14:formula1>
             <xm:f>Drop!$E$3:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2</xm:sqref>
+          <xm:sqref>L2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6242FEA1-B31B-4401-A314-354B324C0371}">
           <x14:formula1>
             <xm:f>Drop!$G$3:$G$11</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60EDB5BF-1FC9-443F-8C4F-95C12214926D}">
+          <x14:formula1>
+            <xm:f>Drop!$I$4:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -986,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE729C-0D5B-4336-A099-FA93E01C0188}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -998,10 +991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016E1D7-BDA8-45C1-91F8-CDBDAB370AF3}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,9 +1003,10 @@
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7265625" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1025,13 +1019,16 @@
       <c r="G2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1041,11 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1058,8 +1058,11 @@
       <c r="G5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>26</v>
       </c>

--- a/Payment Rejected File.xlsx
+++ b/Payment Rejected File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://loreal-my.sharepoint.com/personal/rodrigo_cortesmacias_loreal_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3860599-C149-4682-AF18-A8D5379DC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87CBEF91-965A-4C5C-9C35-2FEA446D443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{42E35C85-E39F-4564-B808-11322546CFD3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Fecha del Rechazo</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CLP</t>
   </si>
 </sst>
 </file>
@@ -272,61 +275,61 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -473,16 +476,14 @@
     <tableColumn id="6" xr3:uid="{C71E92C7-7BFA-49D4-B89C-4673262C31AA}" name="ID Vendor" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{BC2D906F-2A10-4242-B2D0-E0CC21FD5014}" name="Nombre del vendor" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{3A651A61-7A1F-423A-A29E-7763936305B4}" name="Monto del rechazo" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{4CED7002-26F1-4949-8472-BD3DD5420A04}" name="Moneda" dataDxfId="7">
-      <calculatedColumnFormula>_xlfn.XLOOKUP($C2,Drop!$B$2:$B$17,Drop!$C$2:$C$17,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{6A6A6450-5FE6-43ED-AF54-422A9AF2EBB1}" name="Hubo movimiento en banca" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{0BE2BB44-8025-441B-AD97-88A58945B176}" name="Comentarios" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{96A7FF70-07AF-4CEF-973B-D03847C9EDAF}" name="Tipo de Operación" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{F92C841F-0289-4A93-8198-6288A2F94946}" name="Book" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{072A6FE9-F2AB-4935-8A25-42771872AEA6}" name="Deal" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{078DD521-F5FF-418E-8B60-530BF8F0303D}" name="Monto del retorno" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{F43E9EE4-232B-4F6B-9B50-4C2C394225FA}" name="Ticket MyServices" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4CED7002-26F1-4949-8472-BD3DD5420A04}" name="Moneda" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{6A6A6450-5FE6-43ED-AF54-422A9AF2EBB1}" name="Hubo movimiento en banca" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{0BE2BB44-8025-441B-AD97-88A58945B176}" name="Comentarios" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{96A7FF70-07AF-4CEF-973B-D03847C9EDAF}" name="Tipo de Operación" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F92C841F-0289-4A93-8198-6288A2F94946}" name="Book" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{072A6FE9-F2AB-4935-8A25-42771872AEA6}" name="Deal" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{078DD521-F5FF-418E-8B60-530BF8F0303D}" name="Monto del retorno" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{F43E9EE4-232B-4F6B-9B50-4C2C394225FA}" name="Ticket MyServices" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -809,7 +810,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,13 +825,14 @@
     <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7265625" customWidth="1"/>
     <col min="12" max="12" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="15" hidden="1"/>
   </cols>
   <sheetData>
@@ -886,22 +888,20 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45797</v>
+        <v>45812</v>
       </c>
       <c r="B2" s="4">
-        <v>45797</v>
+        <v>45692</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>123456</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3">
-        <v>234</v>
+        <v>12345</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>49</v>
@@ -909,18 +909,15 @@
       <c r="H2" s="5">
         <v>12345</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>_xlfn.XLOOKUP($C2,Drop!$B$2:$B$17,Drop!$C$2:$C$17,"")</f>
-        <v>MXN</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -944,7 +941,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31AC7D9A-CC02-4B31-869D-9182812CB65A}">
           <x14:formula1>
             <xm:f>Drop!$B$3:$B$17</xm:f>
@@ -969,6 +966,12 @@
           </x14:formula1>
           <xm:sqref>J2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7A4B152-518A-43D3-8C6A-AB6BF0C07D37}">
+          <x14:formula1>
+            <xm:f>Drop!$K$3:$K$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -991,10 +994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016E1D7-BDA8-45C1-91F8-CDBDAB370AF3}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,9 +1007,10 @@
     <col min="4" max="4" width="7.7265625" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1022,13 +1026,16 @@
       <c r="I2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1051,11 @@
       <c r="I4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1061,8 +1071,11 @@
       <c r="I5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -1072,19 +1085,25 @@
       <c r="G6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1094,8 +1113,11 @@
       <c r="G8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1105,8 +1127,11 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1116,8 +1141,11 @@
       <c r="G10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1152,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>26</v>
       </c>
